--- a/Data_Result/혈당예측_결과정리_단변량_SG필터_윈도우7_차수1 (1).xlsx
+++ b/Data_Result/혈당예측_결과정리_단변량_SG필터_윈도우7_차수1 (1).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="21075" windowHeight="8295"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="21075" windowHeight="8295" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1029,8 +1029,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N27" sqref="N27:P27"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N31" sqref="N31:P31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2428,21 +2428,51 @@
       <c r="A28" t="s">
         <v>89</v>
       </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="3"/>
-      <c r="O28" s="3"/>
-      <c r="P28" s="3"/>
+      <c r="B28" s="5">
+        <v>13.627513</v>
+      </c>
+      <c r="C28" s="5">
+        <v>20.027318999999999</v>
+      </c>
+      <c r="D28" s="5">
+        <v>26.019365000000001</v>
+      </c>
+      <c r="E28" s="5">
+        <v>11.491761</v>
+      </c>
+      <c r="F28" s="5">
+        <v>18.998633999999999</v>
+      </c>
+      <c r="G28" s="5">
+        <v>25.504325999999999</v>
+      </c>
+      <c r="H28" s="5">
+        <v>11.795624</v>
+      </c>
+      <c r="I28" s="5">
+        <v>18.188448000000001</v>
+      </c>
+      <c r="J28" s="5">
+        <v>25.949299</v>
+      </c>
+      <c r="K28" s="5">
+        <v>13.005815999999999</v>
+      </c>
+      <c r="L28" s="5">
+        <v>20.897983</v>
+      </c>
+      <c r="M28" s="5">
+        <v>25.614324</v>
+      </c>
+      <c r="N28" s="5">
+        <v>11.992086</v>
+      </c>
+      <c r="O28" s="5">
+        <v>20.690733999999999</v>
+      </c>
+      <c r="P28" s="5">
+        <v>26.645223000000001</v>
+      </c>
       <c r="Q28" t="s">
         <v>67</v>
       </c>
@@ -2451,21 +2481,51 @@
       <c r="A29" t="s">
         <v>91</v>
       </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4"/>
-      <c r="N29" s="3"/>
-      <c r="O29" s="3"/>
-      <c r="P29" s="3"/>
+      <c r="B29" s="5">
+        <v>12.098738000000001</v>
+      </c>
+      <c r="C29" s="5">
+        <v>21.226443</v>
+      </c>
+      <c r="D29" s="5">
+        <v>35.141919999999999</v>
+      </c>
+      <c r="E29" s="5">
+        <v>12.033982</v>
+      </c>
+      <c r="F29" s="5">
+        <v>26.662714999999999</v>
+      </c>
+      <c r="G29" s="5">
+        <v>47.026677999999997</v>
+      </c>
+      <c r="H29" s="5">
+        <v>13.507719</v>
+      </c>
+      <c r="I29" s="5">
+        <v>24.486851000000001</v>
+      </c>
+      <c r="J29" s="5">
+        <v>32.831656000000002</v>
+      </c>
+      <c r="K29" s="5">
+        <v>12.784238</v>
+      </c>
+      <c r="L29" s="5">
+        <v>20.590271000000001</v>
+      </c>
+      <c r="M29" s="5">
+        <v>39.972268999999997</v>
+      </c>
+      <c r="N29" s="5">
+        <v>12.692437999999999</v>
+      </c>
+      <c r="O29" s="5">
+        <v>22.349063000000001</v>
+      </c>
+      <c r="P29" s="5">
+        <v>45.383308</v>
+      </c>
       <c r="Q29" t="s">
         <v>47</v>
       </c>
@@ -2474,21 +2534,51 @@
       <c r="A30" t="s">
         <v>92</v>
       </c>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
-      <c r="M30" s="4"/>
-      <c r="N30" s="3"/>
-      <c r="O30" s="3"/>
-      <c r="P30" s="3"/>
+      <c r="B30" s="5">
+        <v>15.829585</v>
+      </c>
+      <c r="C30" s="5">
+        <v>26.184463000000001</v>
+      </c>
+      <c r="D30" s="5">
+        <v>38.293536000000003</v>
+      </c>
+      <c r="E30" s="5">
+        <v>14.344495999999999</v>
+      </c>
+      <c r="F30" s="5">
+        <v>23.369879000000001</v>
+      </c>
+      <c r="G30" s="5">
+        <v>38.172102000000002</v>
+      </c>
+      <c r="H30" s="5">
+        <v>13.070676000000001</v>
+      </c>
+      <c r="I30" s="5">
+        <v>22.316324000000002</v>
+      </c>
+      <c r="J30" s="5">
+        <v>40.089432000000002</v>
+      </c>
+      <c r="K30" s="5">
+        <v>13.448218000000001</v>
+      </c>
+      <c r="L30" s="5">
+        <v>20.605069</v>
+      </c>
+      <c r="M30" s="5">
+        <v>39.289549000000001</v>
+      </c>
+      <c r="N30" s="5">
+        <v>14.926205</v>
+      </c>
+      <c r="O30" s="5">
+        <v>25.456123000000002</v>
+      </c>
+      <c r="P30" s="5">
+        <v>38.379140999999997</v>
+      </c>
       <c r="Q30" t="s">
         <v>48</v>
       </c>
@@ -2497,21 +2587,51 @@
       <c r="A31" t="s">
         <v>94</v>
       </c>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
-      <c r="M31" s="4"/>
-      <c r="N31" s="3"/>
-      <c r="O31" s="3"/>
-      <c r="P31" s="3"/>
+      <c r="B31" s="5">
+        <v>13.835361000000001</v>
+      </c>
+      <c r="C31" s="5">
+        <v>22.121167</v>
+      </c>
+      <c r="D31" s="5">
+        <v>32.624783000000001</v>
+      </c>
+      <c r="E31" s="5">
+        <v>14.841191999999999</v>
+      </c>
+      <c r="F31" s="5">
+        <v>24.6204</v>
+      </c>
+      <c r="G31" s="5">
+        <v>40.279226000000001</v>
+      </c>
+      <c r="H31" s="5">
+        <v>11.421979</v>
+      </c>
+      <c r="I31" s="5">
+        <v>23.143225999999999</v>
+      </c>
+      <c r="J31" s="5">
+        <v>37.573493999999997</v>
+      </c>
+      <c r="K31" s="5">
+        <v>12.533461000000001</v>
+      </c>
+      <c r="L31" s="5">
+        <v>24.392406000000001</v>
+      </c>
+      <c r="M31" s="5">
+        <v>45.589292</v>
+      </c>
+      <c r="N31" s="5">
+        <v>11.893091999999999</v>
+      </c>
+      <c r="O31" s="5">
+        <v>25.541844000000001</v>
+      </c>
+      <c r="P31" s="5">
+        <v>42.798490999999999</v>
+      </c>
       <c r="Q31" t="s">
         <v>68</v>
       </c>
@@ -3011,63 +3131,63 @@
       </c>
       <c r="B56">
         <f t="shared" ref="B56:P56" si="0">AVERAGE(B2:B55)</f>
-        <v>13.574330920000005</v>
+        <v>13.612050689655177</v>
       </c>
       <c r="C56">
         <f t="shared" si="0"/>
-        <v>22.275965679999999</v>
+        <v>22.291673586206901</v>
       </c>
       <c r="D56">
         <f t="shared" si="0"/>
-        <v>32.828869760000003</v>
+        <v>32.855218896551726</v>
       </c>
       <c r="E56">
         <f t="shared" si="0"/>
-        <v>14.434266360000002</v>
+        <v>14.260968620689654</v>
       </c>
       <c r="F56">
         <f t="shared" si="0"/>
-        <v>21.938218480000003</v>
+        <v>22.141623793103456</v>
       </c>
       <c r="G56">
         <f t="shared" si="0"/>
-        <v>36.498693479999993</v>
+        <v>36.670678241379306</v>
       </c>
       <c r="H56">
         <f t="shared" si="0"/>
-        <v>15.566632280000004</v>
+        <v>15.136613965517244</v>
       </c>
       <c r="I56">
         <f t="shared" si="0"/>
-        <v>23.155375319999997</v>
+        <v>23.000663172413791</v>
       </c>
       <c r="J56">
         <f t="shared" si="0"/>
-        <v>33.96622764</v>
+        <v>33.986192137931035</v>
       </c>
       <c r="K56">
         <f t="shared" si="0"/>
-        <v>13.833765880000003</v>
+        <v>13.710892413793106</v>
       </c>
       <c r="L56">
         <f t="shared" si="0"/>
-        <v>22.012846280000005</v>
+        <v>21.958858137931038</v>
       </c>
       <c r="M56">
         <f t="shared" si="0"/>
-        <v>33.309003799999999</v>
+        <v>33.903121689655173</v>
       </c>
       <c r="N56">
         <f t="shared" si="0"/>
-        <v>12.775787639999999</v>
+        <v>12.789603862068963</v>
       </c>
       <c r="O56">
         <f t="shared" si="0"/>
-        <v>22.266125559999999</v>
+        <v>22.437617344827586</v>
       </c>
       <c r="P56">
         <f t="shared" si="0"/>
-        <v>32.825255639999995</v>
+        <v>33.580605310344822</v>
       </c>
     </row>
   </sheetData>
@@ -3081,8 +3201,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N27" sqref="N27:P27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T23" sqref="T23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4402,81 +4522,201 @@
       <c r="A28" t="s">
         <v>90</v>
       </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="3"/>
-      <c r="O28" s="3"/>
-      <c r="P28" s="3"/>
+      <c r="B28" s="5">
+        <v>5.1108729999999998</v>
+      </c>
+      <c r="C28" s="5">
+        <v>13.353781</v>
+      </c>
+      <c r="D28" s="5">
+        <v>25.085329999999999</v>
+      </c>
+      <c r="E28" s="5">
+        <v>4.8448229999999999</v>
+      </c>
+      <c r="F28" s="5">
+        <v>11.850270999999999</v>
+      </c>
+      <c r="G28" s="5">
+        <v>24.355958000000001</v>
+      </c>
+      <c r="H28" s="5">
+        <v>6.4354500000000003</v>
+      </c>
+      <c r="I28" s="5">
+        <v>11.252561</v>
+      </c>
+      <c r="J28" s="5">
+        <v>23.689402000000001</v>
+      </c>
+      <c r="K28" s="5">
+        <v>4.8355930000000003</v>
+      </c>
+      <c r="L28" s="5">
+        <v>12.659007000000001</v>
+      </c>
+      <c r="M28" s="5">
+        <v>24.288239999999998</v>
+      </c>
+      <c r="N28" s="5">
+        <v>4.469468</v>
+      </c>
+      <c r="O28" s="5">
+        <v>12.611761</v>
+      </c>
+      <c r="P28" s="5">
+        <v>24.446842</v>
+      </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>91</v>
       </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4"/>
-      <c r="N29" s="3"/>
-      <c r="O29" s="3"/>
-      <c r="P29" s="3"/>
+      <c r="B29" s="5">
+        <v>7.9928980000000003</v>
+      </c>
+      <c r="C29" s="5">
+        <v>17.482427999999999</v>
+      </c>
+      <c r="D29" s="5">
+        <v>34.246619000000003</v>
+      </c>
+      <c r="E29" s="5">
+        <v>5.5667140000000002</v>
+      </c>
+      <c r="F29" s="5">
+        <v>16.865704999999998</v>
+      </c>
+      <c r="G29" s="5">
+        <v>24.334506000000001</v>
+      </c>
+      <c r="H29" s="5">
+        <v>6.8796799999999996</v>
+      </c>
+      <c r="I29" s="5">
+        <v>13.512838</v>
+      </c>
+      <c r="J29" s="5">
+        <v>41.438780999999999</v>
+      </c>
+      <c r="K29" s="5">
+        <v>6.5081949999999997</v>
+      </c>
+      <c r="L29" s="5">
+        <v>15.852824999999999</v>
+      </c>
+      <c r="M29" s="5">
+        <v>28.631119000000002</v>
+      </c>
+      <c r="N29" s="5">
+        <v>5.5423169999999997</v>
+      </c>
+      <c r="O29" s="5">
+        <v>15.045336000000001</v>
+      </c>
+      <c r="P29" s="5">
+        <v>28.902170999999999</v>
+      </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>93</v>
       </c>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
-      <c r="M30" s="4"/>
-      <c r="N30" s="3"/>
-      <c r="O30" s="3"/>
-      <c r="P30" s="3"/>
+      <c r="B30" s="5">
+        <v>6.1303039999999998</v>
+      </c>
+      <c r="C30" s="5">
+        <v>15.928594</v>
+      </c>
+      <c r="D30" s="5">
+        <v>31.44631</v>
+      </c>
+      <c r="E30" s="5">
+        <v>4.9519869999999999</v>
+      </c>
+      <c r="F30" s="5">
+        <v>13.163743999999999</v>
+      </c>
+      <c r="G30" s="5">
+        <v>28.930361000000001</v>
+      </c>
+      <c r="H30" s="5">
+        <v>4.2018659999999999</v>
+      </c>
+      <c r="I30" s="5">
+        <v>13.109031999999999</v>
+      </c>
+      <c r="J30" s="5">
+        <v>28.088335000000001</v>
+      </c>
+      <c r="K30" s="5">
+        <v>6.4141349999999999</v>
+      </c>
+      <c r="L30" s="5">
+        <v>15.365380999999999</v>
+      </c>
+      <c r="M30" s="5">
+        <v>32.619571000000001</v>
+      </c>
+      <c r="N30" s="5">
+        <v>4.9902300000000004</v>
+      </c>
+      <c r="O30" s="5">
+        <v>13.382384</v>
+      </c>
+      <c r="P30" s="5">
+        <v>30.946054</v>
+      </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>94</v>
       </c>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
-      <c r="M31" s="4"/>
-      <c r="N31" s="3"/>
-      <c r="O31" s="3"/>
-      <c r="P31" s="3"/>
+      <c r="B31" s="5">
+        <v>8.2979769999999995</v>
+      </c>
+      <c r="C31" s="5">
+        <v>16.564382999999999</v>
+      </c>
+      <c r="D31" s="5">
+        <v>33.708190999999999</v>
+      </c>
+      <c r="E31" s="5">
+        <v>6.7591340000000004</v>
+      </c>
+      <c r="F31" s="5">
+        <v>16.736333999999999</v>
+      </c>
+      <c r="G31" s="5">
+        <v>31.13261</v>
+      </c>
+      <c r="H31" s="5">
+        <v>5.6962159999999997</v>
+      </c>
+      <c r="I31" s="5">
+        <v>15.434862000000001</v>
+      </c>
+      <c r="J31" s="5">
+        <v>30.303429999999999</v>
+      </c>
+      <c r="K31" s="5">
+        <v>5.3415999999999997</v>
+      </c>
+      <c r="L31" s="5">
+        <v>15.943708000000001</v>
+      </c>
+      <c r="M31" s="5">
+        <v>31.332795000000001</v>
+      </c>
+      <c r="N31" s="5">
+        <v>5.3427069999999999</v>
+      </c>
+      <c r="O31" s="5">
+        <v>12.871221</v>
+      </c>
+      <c r="P31" s="5">
+        <v>32.301426999999997</v>
+      </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
@@ -4895,63 +5135,63 @@
       </c>
       <c r="B56">
         <f t="shared" ref="B56:P56" si="0">AVERAGE(B2:B55)</f>
-        <v>6.8630463200000005</v>
+        <v>6.8658003448275871</v>
       </c>
       <c r="C56">
         <f t="shared" si="0"/>
-        <v>14.975084000000003</v>
+        <v>15.093320206896555</v>
       </c>
       <c r="D56">
         <f t="shared" si="0"/>
-        <v>28.208980599999997</v>
+        <v>28.610722931034481</v>
       </c>
       <c r="E56">
         <f t="shared" si="0"/>
-        <v>6.2400059600000013</v>
+        <v>6.1421657586206893</v>
       </c>
       <c r="F56">
         <f t="shared" si="0"/>
-        <v>14.38501872</v>
+        <v>14.422121448275863</v>
       </c>
       <c r="G56">
         <f t="shared" si="0"/>
-        <v>26.648726879999995</v>
+        <v>26.72315886206896</v>
       </c>
       <c r="H56">
         <f t="shared" si="0"/>
-        <v>5.8182551999999994</v>
+        <v>5.8161928275862067</v>
       </c>
       <c r="I56">
         <f t="shared" si="0"/>
-        <v>13.124737720000002</v>
+        <v>13.152680551724142</v>
       </c>
       <c r="J56">
         <f t="shared" si="0"/>
-        <v>26.967293600000001</v>
+        <v>27.506975448275863</v>
       </c>
       <c r="K56">
         <f t="shared" si="0"/>
-        <v>6.7398226799999996</v>
+        <v>6.6067272413793097</v>
       </c>
       <c r="L56">
         <f t="shared" si="0"/>
-        <v>14.623305239999997</v>
+        <v>14.669087999999999</v>
       </c>
       <c r="M56">
         <f t="shared" si="0"/>
-        <v>26.861952119999998</v>
+        <v>27.186914758620684</v>
       </c>
       <c r="N56">
         <f t="shared" si="0"/>
-        <v>5.7205264000000007</v>
+        <v>5.6330304137931044</v>
       </c>
       <c r="O56">
         <f t="shared" si="0"/>
-        <v>12.92841932</v>
+        <v>13.004178793103449</v>
       </c>
       <c r="P56">
         <f t="shared" si="0"/>
-        <v>27.403378920000005</v>
+        <v>27.644171275862071</v>
       </c>
     </row>
   </sheetData>

--- a/Data_Result/혈당예측_결과정리_단변량_SG필터_윈도우7_차수1 (1).xlsx
+++ b/Data_Result/혈당예측_결과정리_단변량_SG필터_윈도우7_차수1 (1).xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\DOCUME~1\카카오~1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\카카오톡 받은 파일\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1030,7 +1030,7 @@
   <dimension ref="A1:Q56"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N31" sqref="N31:P31"/>
+      <selection activeCell="N33" sqref="N33:P33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2640,21 +2640,51 @@
       <c r="A32" t="s">
         <v>95</v>
       </c>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="4"/>
-      <c r="L32" s="4"/>
-      <c r="M32" s="4"/>
-      <c r="N32" s="3"/>
-      <c r="O32" s="3"/>
-      <c r="P32" s="3"/>
+      <c r="B32" s="5">
+        <v>24.880293000000002</v>
+      </c>
+      <c r="C32" s="5">
+        <v>38.024374000000002</v>
+      </c>
+      <c r="D32" s="5">
+        <v>53.850517000000004</v>
+      </c>
+      <c r="E32" s="5">
+        <v>21.415243</v>
+      </c>
+      <c r="F32" s="5">
+        <v>35.130212</v>
+      </c>
+      <c r="G32" s="5">
+        <v>50.014921000000001</v>
+      </c>
+      <c r="H32" s="5">
+        <v>21.492348</v>
+      </c>
+      <c r="I32" s="5">
+        <v>36.435487999999999</v>
+      </c>
+      <c r="J32" s="5">
+        <v>49.078237000000001</v>
+      </c>
+      <c r="K32" s="5">
+        <v>22.800142999999998</v>
+      </c>
+      <c r="L32" s="5">
+        <v>34.698759000000003</v>
+      </c>
+      <c r="M32" s="5">
+        <v>52.200361999999998</v>
+      </c>
+      <c r="N32" s="5">
+        <v>21.415911000000001</v>
+      </c>
+      <c r="O32" s="5">
+        <v>34.562218999999999</v>
+      </c>
+      <c r="P32" s="5">
+        <v>53.114356999999998</v>
+      </c>
       <c r="Q32" t="s">
         <v>49</v>
       </c>
@@ -2663,21 +2693,51 @@
       <c r="A33" t="s">
         <v>96</v>
       </c>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="4"/>
-      <c r="L33" s="4"/>
-      <c r="M33" s="4"/>
-      <c r="N33" s="3"/>
-      <c r="O33" s="3"/>
-      <c r="P33" s="3"/>
+      <c r="B33" s="5">
+        <v>13.29663</v>
+      </c>
+      <c r="C33" s="5">
+        <v>20.797713000000002</v>
+      </c>
+      <c r="D33" s="5">
+        <v>26.811973999999999</v>
+      </c>
+      <c r="E33" s="5">
+        <v>13.170501</v>
+      </c>
+      <c r="F33" s="5">
+        <v>21.781238999999999</v>
+      </c>
+      <c r="G33" s="5">
+        <v>25.708407000000001</v>
+      </c>
+      <c r="H33" s="5">
+        <v>12.573962999999999</v>
+      </c>
+      <c r="I33" s="5">
+        <v>23.558060999999999</v>
+      </c>
+      <c r="J33" s="5">
+        <v>32.841099999999997</v>
+      </c>
+      <c r="K33" s="5">
+        <v>12.388643999999999</v>
+      </c>
+      <c r="L33" s="5">
+        <v>20.890447000000002</v>
+      </c>
+      <c r="M33" s="5">
+        <v>26.798237</v>
+      </c>
+      <c r="N33" s="5">
+        <v>12.933292</v>
+      </c>
+      <c r="O33" s="5">
+        <v>19.722252000000001</v>
+      </c>
+      <c r="P33" s="5">
+        <v>27.389006999999999</v>
+      </c>
       <c r="Q33" t="s">
         <v>69</v>
       </c>
@@ -3131,63 +3191,63 @@
       </c>
       <c r="B56">
         <f t="shared" ref="B56:P56" si="0">AVERAGE(B2:B55)</f>
-        <v>13.612050689655177</v>
+        <v>13.965367516129037</v>
       </c>
       <c r="C56">
         <f t="shared" si="0"/>
-        <v>22.291673586206901</v>
+        <v>22.75098777419355</v>
       </c>
       <c r="D56">
         <f t="shared" si="0"/>
-        <v>32.855218896551726</v>
+        <v>33.337543193548385</v>
       </c>
       <c r="E56">
         <f t="shared" si="0"/>
-        <v>14.260968620689654</v>
+        <v>14.456575290322579</v>
       </c>
       <c r="F56">
         <f t="shared" si="0"/>
-        <v>22.141623793103456</v>
+        <v>22.548985193548397</v>
       </c>
       <c r="G56">
         <f t="shared" si="0"/>
-        <v>36.670678241379306</v>
+        <v>36.747516032258062</v>
       </c>
       <c r="H56">
         <f t="shared" si="0"/>
-        <v>15.136613965517244</v>
+        <v>15.258971483870971</v>
       </c>
       <c r="I56">
         <f t="shared" si="0"/>
-        <v>23.000663172413791</v>
+        <v>23.452025193548383</v>
       </c>
       <c r="J56">
         <f t="shared" si="0"/>
-        <v>33.986192137931035</v>
+        <v>34.436093838709681</v>
       </c>
       <c r="K56">
         <f t="shared" si="0"/>
-        <v>13.710892413793106</v>
+        <v>13.961440870967744</v>
       </c>
       <c r="L56">
         <f t="shared" si="0"/>
-        <v>21.958858137931038</v>
+        <v>22.335357806451615</v>
       </c>
       <c r="M56">
         <f t="shared" si="0"/>
-        <v>33.903121689655173</v>
+        <v>34.264165419354839</v>
       </c>
       <c r="N56">
         <f t="shared" si="0"/>
-        <v>12.789603862068963</v>
+        <v>13.072506935483869</v>
       </c>
       <c r="O56">
         <f t="shared" si="0"/>
-        <v>22.437617344827586</v>
+        <v>22.741141096774196</v>
       </c>
       <c r="P56">
         <f t="shared" si="0"/>
-        <v>33.580605310344822</v>
+        <v>34.010997354838707</v>
       </c>
     </row>
   </sheetData>
@@ -4722,41 +4782,101 @@
       <c r="A32" t="s">
         <v>95</v>
       </c>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="4"/>
-      <c r="L32" s="4"/>
-      <c r="M32" s="4"/>
-      <c r="N32" s="3"/>
-      <c r="O32" s="3"/>
-      <c r="P32" s="3"/>
+      <c r="B32" s="5">
+        <v>7.2815409999999998</v>
+      </c>
+      <c r="C32" s="5">
+        <v>16.727882999999999</v>
+      </c>
+      <c r="D32" s="5">
+        <v>33.116213999999999</v>
+      </c>
+      <c r="E32" s="5">
+        <v>6.6673640000000001</v>
+      </c>
+      <c r="F32" s="5">
+        <v>17.464721999999998</v>
+      </c>
+      <c r="G32" s="5">
+        <v>33.778489999999998</v>
+      </c>
+      <c r="H32" s="5">
+        <v>4.9653799999999997</v>
+      </c>
+      <c r="I32" s="5">
+        <v>15.985086000000001</v>
+      </c>
+      <c r="J32" s="5">
+        <v>32.753399999999999</v>
+      </c>
+      <c r="K32" s="5">
+        <v>5.8900670000000002</v>
+      </c>
+      <c r="L32" s="5">
+        <v>17.623221000000001</v>
+      </c>
+      <c r="M32" s="5">
+        <v>34.26643</v>
+      </c>
+      <c r="N32" s="5">
+        <v>5.2697940000000001</v>
+      </c>
+      <c r="O32" s="5">
+        <v>13.902969000000001</v>
+      </c>
+      <c r="P32" s="5">
+        <v>32.495199999999997</v>
+      </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>97</v>
       </c>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="4"/>
-      <c r="L33" s="4"/>
-      <c r="M33" s="4"/>
-      <c r="N33" s="3"/>
-      <c r="O33" s="3"/>
-      <c r="P33" s="3"/>
+      <c r="B33" s="5">
+        <v>5.6458159999999999</v>
+      </c>
+      <c r="C33" s="5">
+        <v>13.413518</v>
+      </c>
+      <c r="D33" s="5">
+        <v>29.285139000000001</v>
+      </c>
+      <c r="E33" s="5">
+        <v>6.9583950000000003</v>
+      </c>
+      <c r="F33" s="5">
+        <v>11.682145</v>
+      </c>
+      <c r="G33" s="5">
+        <v>28.237363999999999</v>
+      </c>
+      <c r="H33" s="5">
+        <v>4.2461180000000001</v>
+      </c>
+      <c r="I33" s="5">
+        <v>10.205819999999999</v>
+      </c>
+      <c r="J33" s="5">
+        <v>25.137668999999999</v>
+      </c>
+      <c r="K33" s="5">
+        <v>4.7755840000000003</v>
+      </c>
+      <c r="L33" s="5">
+        <v>12.04232</v>
+      </c>
+      <c r="M33" s="5">
+        <v>28.270505</v>
+      </c>
+      <c r="N33" s="5">
+        <v>4.9559660000000001</v>
+      </c>
+      <c r="O33" s="5">
+        <v>13.159138</v>
+      </c>
+      <c r="P33" s="5">
+        <v>27.880952000000001</v>
+      </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
@@ -5135,63 +5255,63 @@
       </c>
       <c r="B56">
         <f t="shared" ref="B56:P56" si="0">AVERAGE(B2:B55)</f>
-        <v>6.8658003448275871</v>
+        <v>6.8398570000000003</v>
       </c>
       <c r="C56">
         <f t="shared" si="0"/>
-        <v>15.093320206896555</v>
+        <v>15.091860870967746</v>
       </c>
       <c r="D56">
         <f t="shared" si="0"/>
-        <v>28.610722931034481</v>
+        <v>28.777816709677417</v>
       </c>
       <c r="E56">
         <f t="shared" si="0"/>
-        <v>6.1421657586206893</v>
+        <v>6.1854376129032254</v>
       </c>
       <c r="F56">
         <f t="shared" si="0"/>
-        <v>14.422121448275863</v>
+        <v>14.431883516129032</v>
       </c>
       <c r="G56">
         <f t="shared" si="0"/>
-        <v>26.72315886206896</v>
+        <v>26.999595516129027</v>
       </c>
       <c r="H56">
         <f t="shared" si="0"/>
-        <v>5.8161928275862067</v>
+        <v>5.7380996774193544</v>
       </c>
       <c r="I56">
         <f t="shared" si="0"/>
-        <v>13.152680551724142</v>
+        <v>13.148988451612908</v>
       </c>
       <c r="J56">
         <f t="shared" si="0"/>
-        <v>27.506975448275863</v>
+        <v>27.59978570967742</v>
       </c>
       <c r="K56">
         <f t="shared" si="0"/>
-        <v>6.6067272413793097</v>
+        <v>6.5245400322580638</v>
       </c>
       <c r="L56">
         <f t="shared" si="0"/>
-        <v>14.669087999999999</v>
+        <v>14.679648161290322</v>
       </c>
       <c r="M56">
         <f t="shared" si="0"/>
-        <v>27.186914758620684</v>
+        <v>27.450240741935477</v>
       </c>
       <c r="N56">
         <f t="shared" si="0"/>
-        <v>5.6330304137931044</v>
+        <v>5.5994723225806453</v>
       </c>
       <c r="O56">
         <f t="shared" si="0"/>
-        <v>13.004178793103449</v>
+        <v>13.03817070967742</v>
       </c>
       <c r="P56">
         <f t="shared" si="0"/>
-        <v>27.644171275862071</v>
+        <v>27.80829416129032</v>
       </c>
     </row>
   </sheetData>
